--- a/down_send/phones_set.xlsx
+++ b/down_send/phones_set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\down_send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\s_pics\down_send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EA484-B257-43A2-8D34-F1E22BD668D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE898C-6AB4-474D-B0C9-8EF0BAB1CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="328">
   <si>
     <t>iphone 12 pro max oro</t>
   </si>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>https://www.backmarket.es/google-google-pixel-4-64-gb-negro-libre-segunda-mano/298819.html#scroll=false</t>
+  </si>
+  <si>
+    <t>PROCESSED ALREADY PHONES IN THIS COLUMN</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,1323 +1332,1246 @@
     <col min="1" max="1" width="59.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>251</v>
-      </c>
-      <c r="B128" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>257</v>
-      </c>
-      <c r="B131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>261</v>
-      </c>
-      <c r="B133" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>279</v>
-      </c>
-      <c r="B142" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>283</v>
-      </c>
-      <c r="B144" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>287</v>
-      </c>
-      <c r="B146" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>293</v>
-      </c>
-      <c r="B149" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>295</v>
-      </c>
-      <c r="B150" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>297</v>
-      </c>
-      <c r="B151" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>299</v>
-      </c>
-      <c r="B152" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>301</v>
-      </c>
-      <c r="B153" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>305</v>
-      </c>
-      <c r="B155" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>307</v>
-      </c>
-      <c r="B156" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>311</v>
-      </c>
-      <c r="B158" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>313</v>
-      </c>
-      <c r="B159" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>315</v>
-      </c>
-      <c r="B160" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>317</v>
-      </c>
-      <c r="B161" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>319</v>
-      </c>
-      <c r="B162" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>321</v>
-      </c>
-      <c r="B163" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>323</v>
-      </c>
-      <c r="B164" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>325</v>
-      </c>
-      <c r="B165" t="s">
         <v>326</v>
       </c>
     </row>

--- a/down_send/phones_set.xlsx
+++ b/down_send/phones_set.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\s_pics\down_send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\down_send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE898C-6AB4-474D-B0C9-8EF0BAB1CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71CF39-F116-4B1D-A377-0A3643C61EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1321,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,10 +1334,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
         <v>327</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
         <v>54</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -1764,12 +1764,6 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
       <c r="D32" t="s">
         <v>60</v>
       </c>
@@ -1777,13 +1771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" t="s">
-        <v>143</v>
-      </c>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>62</v>
       </c>
@@ -1791,13 +1779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>64</v>
       </c>
@@ -1805,13 +1787,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>66</v>
       </c>
@@ -1819,13 +1795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>68</v>
       </c>
@@ -1833,13 +1803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>151</v>
-      </c>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>70</v>
       </c>
@@ -1847,13 +1811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>72</v>
       </c>
@@ -1861,13 +1819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" t="s">
-        <v>155</v>
-      </c>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>74</v>
       </c>
@@ -1875,13 +1827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>157</v>
-      </c>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>76</v>
       </c>
@@ -1889,13 +1835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" t="s">
-        <v>159</v>
-      </c>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>77</v>
       </c>
@@ -1903,676 +1843,756 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
         <v>160</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E83" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
         <v>162</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E84" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
         <v>164</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E85" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
         <v>166</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
         <v>168</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
         <v>170</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E88" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
         <v>172</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E89" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
         <v>174</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E90" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
         <v>176</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E91" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
         <v>178</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E92" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
         <v>180</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E93" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
         <v>182</v>
       </c>
-      <c r="B53" t="s">
+      <c r="E94" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
         <v>184</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E95" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
         <v>186</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E96" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
         <v>188</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E97" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
         <v>190</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E98" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
         <v>192</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E99" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
         <v>194</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E100" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
         <v>196</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
         <v>198</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E102" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
         <v>200</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E103" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D104" t="s">
         <v>202</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E104" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
         <v>203</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E105" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
         <v>205</v>
       </c>
-      <c r="B65" t="s">
+      <c r="E106" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
         <v>207</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
         <v>209</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E108" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
         <v>211</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E109" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D110" t="s">
         <v>213</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E110" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
         <v>215</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E111" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
         <v>217</v>
       </c>
-      <c r="B71" t="s">
+      <c r="E112" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D113" t="s">
         <v>219</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E113" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
         <v>221</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E114" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
         <v>223</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E115" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
         <v>225</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E116" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>227</v>
-      </c>
-      <c r="B76" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>229</v>
-      </c>
-      <c r="B77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="s">
+      <c r="E117" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E118" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
         <v>235</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E119" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
         <v>237</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E120" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
         <v>239</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E121" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
         <v>241</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E122" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
         <v>243</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E123" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
         <v>245</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E124" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
         <v>247</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E125" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
         <v>249</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E126" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D127" t="s">
         <v>251</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E127" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
         <v>253</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E128" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
         <v>255</v>
       </c>
-      <c r="B90" t="s">
+      <c r="E129" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
         <v>257</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E130" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
         <v>259</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E131" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
         <v>261</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E132" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
         <v>263</v>
       </c>
-      <c r="B94" t="s">
+      <c r="E133" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
         <v>265</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E134" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
         <v>267</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E135" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>271</v>
-      </c>
-      <c r="B98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>275</v>
-      </c>
-      <c r="B100" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>277</v>
-      </c>
-      <c r="B101" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>279</v>
-      </c>
-      <c r="B102" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>281</v>
-      </c>
-      <c r="B103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>283</v>
-      </c>
-      <c r="B104" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>285</v>
-      </c>
-      <c r="B105" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>287</v>
-      </c>
-      <c r="B106" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>291</v>
-      </c>
-      <c r="B108" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>293</v>
-      </c>
-      <c r="B109" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>295</v>
-      </c>
-      <c r="B110" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>297</v>
-      </c>
-      <c r="B111" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>299</v>
-      </c>
-      <c r="B112" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>301</v>
-      </c>
-      <c r="B113" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>303</v>
-      </c>
-      <c r="B114" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>305</v>
-      </c>
-      <c r="B115" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>307</v>
-      </c>
-      <c r="B116" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>309</v>
-      </c>
-      <c r="B117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>311</v>
-      </c>
-      <c r="B118" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>313</v>
-      </c>
-      <c r="B119" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>315</v>
-      </c>
-      <c r="B120" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>317</v>
-      </c>
-      <c r="B121" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>319</v>
-      </c>
-      <c r="B122" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>321</v>
-      </c>
-      <c r="B123" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>323</v>
-      </c>
-      <c r="B124" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>325</v>
-      </c>
-      <c r="B125" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/down_send/phones_set.xlsx
+++ b/down_send/phones_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\down_send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71CF39-F116-4B1D-A377-0A3643C61EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4490D5-374A-40DD-8774-9E05395F96E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="732">
   <si>
     <t>iphone 12 pro max oro</t>
   </si>
@@ -841,12 +841,6 @@
     <t>https://www.amazon.es/Xiaomi-Pantalla-DotDisplay-Snapdragon-Espa%C3%B1ola/dp/B08ZN79TJ7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+11+lite+negro&amp;qid=1630750785&amp;s=electronics&amp;sr=1-1</t>
   </si>
   <si>
-    <t>xiaomi mi 11 lite rosa</t>
-  </si>
-  <si>
-    <t>https://www.amazon.es/Xiaomi-Pantalla-DotDisplay-Snapdragon-Espa%C3%B1ola/dp/B083HRGVCG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+11+lite+rosa&amp;qid=1630750800&amp;s=electronics&amp;sr=1-1</t>
-  </si>
-  <si>
     <t>xiaomi mi 11 lite azul</t>
   </si>
   <si>
@@ -871,12 +865,6 @@
     <t>https://www.amazon.es/Xiaomi-Smartphone-DotDisplay-Wide-Angle-5020mAh/dp/B08Y8QDL32/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+redmi+note+10+pro+gris&amp;qid=1631017964&amp;s=electronics&amp;sr=1-5</t>
   </si>
   <si>
-    <t>xiaomi redmi note 10 pro azul</t>
-  </si>
-  <si>
-    <t>https://www.amazon.es/Xiaomi-Smartphone-DotDisplay-Wide-Angle-5020mAh/dp/B08Y8PJ172/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi%2Bredmi%2Bnote%2B10%2Bpro%2Bgris&amp;qid=1631017964&amp;s=electronics&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
     <t>xiaomi redmi note 10 pro bronce</t>
   </si>
   <si>
@@ -1003,7 +991,1231 @@
     <t>https://www.backmarket.es/google-google-pixel-4-64-gb-negro-libre-segunda-mano/298819.html#scroll=false</t>
   </si>
   <si>
-    <t>PROCESSED ALREADY PHONES IN THIS COLUMN</t>
+    <t>iphone 12 pro max negro/grafito</t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-12-pro-max-128-gb-grafito-libre-segunda-mano/413837.html#l=10</t>
+  </si>
+  <si>
+    <t>iphone 12 pro negro  /grafito</t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-12-pro-128-gb-grafito-libre-segunda-mano/413171.html#l=12</t>
+  </si>
+  <si>
+    <t>iphone 12 púrpura/malva</t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-12-64-gb-purpura-libre-segunda-mano/475946.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 12 mini púrpura  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-12-mini-64-gb-purpura-libre-segunda-mano/476085.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 12 mini rojo  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-12-mini-64-gb-productred-libre-segunda-mano/412292.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone xr blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-XR-128-GB-Blanco/dp/B08L71BVYB/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631103499&amp;s=electronics&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone xr azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-XR-128-GB-Blanco/dp/B08L6YWHXL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone%2Bxr%2Bblanco&amp;qid=1631103499&amp;s=electronics&amp;sr=1-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 11 pro max dorado  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-Pro-Max-64-GB/dp/B07XRHG1TQ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+11+pro+max+dorado&amp;qid=1631103747&amp;s=electronics&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 11 pro dorado  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Nuevo-Apple-iPhone-Pro-512-GB/dp/B08L5QZGJD/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+11+pro+dorado&amp;qid=1631103815&amp;s=electronics&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 11 púrpura  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-11-128-GB-en-Malva/dp/B08L6ZXBV7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+11+purpura&amp;qid=1631103901&amp;s=electronics&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 11 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-11-128-GB-en-Malva/dp/B08L6ZN6NN/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone%2B11%2Bpurpura&amp;qid=1631103901&amp;s=electronics&amp;sr=1-4&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone xs dorado  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-xs-64-gb-oro-libre-segunda-mano/175669.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 8 plus dorado  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-8-plus-64-gb-oro-libre-segunda-mano/38771.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 8 plus rojo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 8 dorado  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-8-64-gb-oro-libre-segunda-mano/36829.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 8 plata  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-8-64-gb-plata-libre-segunda-mano/36828.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 7 dorado  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-Smartphone-Reacondicionado-Certificado/dp/B01N14KN69/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone%2B8%2Bplata&amp;qid=1631104221&amp;s=electronics&amp;sr=1-24&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone se 2016 gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-se-32-gb-gris-espacial-libre-segunda-mano/21896.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone se 2016 plata  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-se-32-gb-plata-libre-segunda-mano/21898.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone se 2016 dorado  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-se-32-gb-oro-libre-segunda-mano/21900.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone se 2016 rosa  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-se-32-gb-oro-rosa-libre-segunda-mano/21902.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 6s plus gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-6s-plus-32-gb-gris-espacial-libre-segunda-mano/14659.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 6s plus plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-Plus-SIM-Free-Smartphone/dp/B071Z2976X/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+6s+plus&amp;qid=1631104592&amp;s=electronics&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 6s plus dorado  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-Smartphone-Reacondicionado-Certificado/dp/B076FRHT41/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone%2B6s&amp;qid=1631104417&amp;s=electronics&amp;sr=1-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 6s plus rosa  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-Smartphone-Reacondicionado-Certificado/dp/B01MUEA4PM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+6s+rosa&amp;qid=1631104506&amp;s=electronics&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 6s gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-Smartphone-Reacondicionado-Certificado/dp/B076G3YLNL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone%2B6s&amp;qid=1631104417&amp;s=electronics&amp;sr=1-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 6s plata  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a72 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWY78WJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba72&amp;qid=1631177698&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a72 violeta  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WX8NCKS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba72&amp;qid=1631177698&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a72 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWM8XKJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba72&amp;qid=1631177698&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a52 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWHJFLR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba52&amp;qid=1631177972&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a52 5g violeta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung samsung galaxy xcover 5 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Xcover-SM-G525FN-Black/dp/B08YDYGXYJ/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+samsung+galaxy+xcover+5&amp;qid=1631178064&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a32 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-ampliables-espa%C3%B1ola/dp/B08T9XWRDQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a32+blanco&amp;qid=1631178141&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s21 ultra 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXFPWWG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs21%2Bultra&amp;qid=1631178353&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s21+ 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXFPWXH/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s21+%2B+5g&amp;qid=1631178571&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s21+ 5g violeta  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXW1TXX/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs21%2B%2B%2B5g&amp;qid=1631178571&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s21+ 5g rosado  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXW1TXX/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs21%2Bultra&amp;qid=1631178353&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s21+ 5g dorado  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-s215g-128-gb-oro-libre-segunda-mano/494897.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a32 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-ampliables-espa%C3%B1ola/dp/B08T9YXQM1/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba32%2B5g&amp;qid=1631178947&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a02 azul  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a02-64-gb-azul-libre-segunda-mano/492713.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m21s azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A21s-Smartphone-Procesador/dp/B08LQWF419/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bm21s%2Bnegro&amp;qid=1631179623&amp;sr=8-11&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m21s negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A21s-Smartphone-Procesador/dp/B08LQT6L7X/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m21s+negro&amp;qid=1631179623&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 fe 5g lavanda  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-S20-FE-Smartphone/dp/B08KW91BLC/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs20%2Bfe%2B5g&amp;qid=1631179940&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 fe 5g rojo  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-S20-FE-Smartphone/dp/B08HNBMG1R/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs20%2Bfe%2B5g&amp;qid=1631179940&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 fe 5g naranja  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a42 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/SAMSUNG-Smartphone-Android-Ampliable-espa%C3%B1ola/dp/B08KHR9H3B/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a42+5g+gris&amp;qid=1631179994&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m51 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Bater%C3%ADa-r%C3%A1pida/dp/B08GPHT8KN/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bm51&amp;qid=1631180027&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m51 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Bater%C3%ADa-r%C3%A1pida/dp/B08GPNP8C6/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bm51&amp;qid=1631180027&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy z fold2 5g bronce  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-z-fold2-5g-256-gb-bronce-libre-segunda-mano/402525.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy z fold2 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-z-fold2-5g-256-gb-negro-libre-segunda-mano/411993.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 ultra 5g bronce  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Android-Versi%C3%B3n-espa%C3%B1ola/dp/B08D6Q8VCR/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote20%2Bultra%2B5g&amp;qid=1631180442&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 5g verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Android-Versi%C3%B3n-espa%C3%B1ola/dp/B08D6Q383V/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote20%2B5g&amp;qid=1631180740&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 5g bronce  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Android-Versi%C3%B3n-espa%C3%B1ola/dp/B08D6QYJ5K/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote20%2B5g&amp;qid=1631180740&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Smartphone-Android-Versi%C3%B3n-espa%C3%B1ola/dp/B08D6QSXBL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote20%2B5g&amp;qid=1631180740&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 verde  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note-20-256-gb-verde-libre-segunda-mano/489462.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 bronce  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note20-256-gb-bronce-libre-segunda-mano/477308.html#scroll=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note20 gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note20-256-gb-gris-libre-segunda-mano/457513.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy z flip 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-SM-F707F-Flip-256GB-Mystic/dp/B08L5QRCDF/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+z+flip&amp;qid=1631181169&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy z flip 5g bronce  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-SM-F707F-256GB-Mystic-Bronze/dp/B08L5T1FPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a71 5g uw negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A71-Smartphone-espa%C3%B1ola/dp/B082Y9MJMV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba71&amp;qid=1631181514&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a71 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a51-5g-128-gb-negro-libre-segunda-mano/507040.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m11 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/SAMSUNG-Smartphone-Pantalla-Ampliables-Bater%C3%ADa/dp/B08J7LRX98/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m11&amp;qid=1631182590&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m11 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/SAMSUNG-Smartphone-Pantalla-Ampliables-Bater%C3%ADa/dp/B08J7T7K26/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bm11&amp;qid=1631182590&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a41 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A41-Smartphone-espa%C3%B1ola/dp/B08779NC8F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba41&amp;qid=1631182873&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m21 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-64GB-Azul-Dual/dp/B08DKBCJM4/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m21&amp;qid=1631182963&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m21 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-M21-Smartphone-Ampliables/dp/B0883HGRJL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m21&amp;qid=1631182932&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a11 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a11-32-gb-blanco-libre-segunda-mano/379992.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 ultra 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-ultra-5g-128-gb-gris-cosmico-libre-segunda-mano/354705.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 ultra 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-ultra-5g-128-gb-negro-cosmic-black-libre-segunda-mano/333759.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 ultra 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-ultra-5g-128-gb-blanco-libre-segunda-mano/408191.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 ultra gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-ultra-128-gb-gris-cosmico-libre-segunda-mano/460819.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 ultra negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-ultra-128-gb-negro-libre-segunda-mano/418616.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 ultra blanco  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20+ 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-negro-libre-segunda-mano/352792.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20+ 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-gris-cosmico-libre-segunda-mano/426520.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20+ 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-azul-libre-segunda-mano/331548.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20+ azul  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-128-gb-azul-libre-segunda-mano/331492.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 5g uw gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-gris-cosmico-libre-segunda-mano/464273.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 5g uw blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-blanco-libre-segunda-mano/482700.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-gris-libre-segunda-mano/334030.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-azul-libre-segunda-mano/354703.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s20 5g rosa  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s20-5g-128-gb-rosa-cloud-pink-libre-segunda-mano/354701.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy z flip morado  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-z-flip-256-gb-violeta-libre-segunda-mano/333832.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy z flip gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-z-flip-5g-256-gb-gris-libre-segunda-mano/461480.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note 10 lite violeta  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-lite-128-gb-aura-glow-libre-segunda-mano/417436.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note 10 lite negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-lite-128-gb-negro-libre-segunda-mano/381799.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note 10 lite rojo  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-lite-128-gb-rojo-libre-segunda-mano/353933.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s10 lite negro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a71 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A71-Smartphone-Espa%C3%B1ola/dp/B083YBQ9ZW/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba71&amp;qid=1631186310&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a20s negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a20s-32-gb-negro-libre-segunda-mano/321028.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a20s verde  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a20s-64-gb-azul-libre-segunda-mano/508529.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy m30s negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a30s-128-gb-negro-libre-segunda-mano/445034.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a90 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a90-5g-128-gb-blanco-libre-segunda-mano/325457.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a90 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a90-5g-128-gb-negro-libre-segunda-mano/327882.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a30s blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A30s-Smartphone-espa%C3%B1ola/dp/B07WHYSLLQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a30s&amp;qid=1631197408&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a30s verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/SAMSUNG-SM-A307FZGWITV-Tel%C3%A9fono-Samsung-Galaxy/dp/B086LZZPPC/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Ba30s&amp;qid=1631197408&amp;sr=8-18&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a30s violeta  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a30s-64-gb-violeta-libre-segunda-mano/440431.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note10+ 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-5g-256-gb-negro-libre-segunda-mano/347360.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note10+ violeta  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-256-gb-aura-glow-libre-segunda-mano/313792.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note10+ blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-256-gb-blanco-libre-segunda-mano/350903.html?shopping=gmc#?l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note10+ negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note10-512-gb-negro-aura-black-libre-segunda-mano/285425.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a10s azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A10s-Dual-SM-A107F/dp/B08B67CRJP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a10s&amp;qid=1631198287&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a10s verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A10s-SM-A107F-Green/dp/B07XVDNTQC/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a10s&amp;qid=1631198287&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a10s negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A10s-SM-A107F-Black/dp/B07XLR1S2F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a10s&amp;qid=1631198254&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a10e negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-a10e-32-gb-negro-libre-segunda-mano/494655.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note9 plata  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note-9-128-gb-gris-libre-segunda-mano/259874.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note9 lavanda  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-SM-N960F-Galaxy-Memoria-Midnight/dp/B07G4SSSDW/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote9&amp;qid=1631198457&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note9 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-SM-N960F-Galaxy-Memoria-Midnight/dp/B07G4P7MVG/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote9&amp;qid=1631198457&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note9 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note9-512-gb-blanco-libre-segunda-mano/431803.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9+ azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Plus-Single-reacondicionado/dp/B07MQ9R3CR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s9%2B&amp;qid=1631198717&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9+ gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-SM-G965F-64GB-Gris/dp/B084JKMLYJ/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s9%2B&amp;qid=1631198817&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9+ purpura  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s9-64-gb-violeta-lilac-purple-libre-segunda-mano/478384.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9+ rojo  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s9-64-gb-rojo-libre-segunda-mano/494484.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9+ oro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s9-plus-64-gb-dorado-sunrise-gold-libre-segunda-mano/164312.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9 purpura  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-S9-64GB-reacondicionado/dp/B07MC87YGQ/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s9%2B&amp;qid=1631198817&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9 rojo  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s9-64-gb-rojo-libre-segunda-mano/330395.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9 oro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-S9-Smartphone-Bluetooth/dp/B07F25S6M6/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s9+gold&amp;qid=1631199027&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note8 oro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Note8-Smartphone-single-SIM/dp/B075KGY2QW/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bnote8&amp;qid=1631199094&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy note8 gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-note-8-64-gb-gris-libre-segunda-mano/150297.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s8 active gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/samsung-galaxy-s8-active-64-gb-gris-libre-segunda-mano/411974.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s8 gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-espa%C3%B1ola/dp/B06XWYWQ2L/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs8&amp;qid=1631199424&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s7 edge blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01BTZFU2C/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs7%2Bedge&amp;qid=1631199637&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s7 edge plata  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s7 edge rosa  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01E1QPH1U/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs7%2Bedge&amp;qid=1631199637&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s7 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01GIK2S2I/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs7%2Bedge&amp;qid=1631199637&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi redmi note 8  blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/xiaomi-xiaomi-redmi-note-8-64-gb-blanco-perla-libre-segunda-mano/300858.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi poco m3 pro 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/dp/B095HPVVTW/ref=twister_B095YPYV8F?_encoding=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 11 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/xiaomi-xiaomi-mi-11-256-gb-gris-libre-segunda-mano/462542.html#l=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 11 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/xiaomi-xiaomi-mi-11-256-gb-blanco-libre-segunda-mano/487911.html#l=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 11 5g azul  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 11 lite 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-DotDisplay-Snapdragon-Espa%C3%B1ola/dp/B08ZN8N7Z7/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+11+ultra&amp;qid=1631200503&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 11 lite 5g verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Lite-128GB-Verde-Libre/dp/B095WPKWJX/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+11+ultra&amp;qid=1631200539&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 11 lite 5g amarillo  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Mi-11-Lite-Smartphone/dp/B096XP8J1K/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+11+ultra&amp;qid=1631200539&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi black shark 4 pro negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Black-Shark-5G-Smartphone-Snapdragon/dp/B094CLDQJF/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+black+shark+4+pro&amp;qid=1631200882&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi poco x3 pro azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Poco-X3-Pro-Smartphone/dp/B08Z6ZFBQV/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=poco+x3+pro+azul&amp;qid=1631201372&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi poco f3 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/xiaomi-xiaomi-poco-f3-128-gb-negro-midnight-black-libre-segunda-mano/496982.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi redmi note 9t violeta  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/xiaomi-xiaomi-redmi-note-9t-128-gb-violeta-libre-segunda-mano/468371.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi redmi 9t gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-XIAOMI-REDMI-64GB-Carbon/dp/B08VWZY1P8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+redmi+9t&amp;qid=1631202062&amp;sr=8-1#customerReviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi redmi 9t azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Redmi-9T-Smartphone-Ocean/dp/B08VX125L3/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi%2Bredmi%2B9t&amp;qid=1631202034&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi redmi 9t naranja  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Redmi-9T-Smartphone-Ocean/dp/B08VWZN927/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+redmi+9t&amp;qid=1631202034&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi redmi 9t verde  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10t pro 5g plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJDNNQY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi%2Bmi%2B10t%2Bpro%2B5g&amp;qid=1631263262&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10t pro 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJLQ6NR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi%2Bmi%2B10t%2Bpro%2B5g&amp;qid=1631263262&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10t lite 5g rosa  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/xiaomi-xiaomi-mi-10t-lite-5g-128-gb-rosaverde-rose-gold-beach-libre-segunda-mano/444924.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10 5g verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Snapdragon-4780mah-espa%C3%B1ola/dp/B086K42Y5P/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10+5g&amp;qid=1631263545&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Snapdragon-4780mah-espa%C3%B1ola/dp/B086M86NYP/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi%2Bmi%2B10%2B5g&amp;qid=1631263545&amp;sr=8-8&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google pixel 4a 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Google-Pixel-Tipo-Negro-Android/dp/B08JN54LK3/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=google+pixel+4a&amp;qid=1631263833&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 pro negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY2NZHD/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo+find+x3+pro&amp;qid=1631264098&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 pro azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY4Z6S9/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx3%2Bpro&amp;qid=1631264098&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 neo plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY25SL7/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx3%2Bpro&amp;qid=1631264098&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 neo negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY4NG36/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx3%2Bpro&amp;qid=1631264098&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 lite plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY55J4P/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx3%2Bpro&amp;qid=1631264098&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 lite azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY466SR/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx3%2Bpro&amp;qid=1631264098&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x3 lite negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Oppo-Find-Pro-Snapdragon-Cu%C3%A1druple/dp/B08XY42QGP/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx3%2Bpro&amp;qid=1631264098&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNEpJQ1FBSUlFWEFUJmVuY3J5cHRlZElkPUEwNzgyNTE0MlRLNjdWVDNWMjk0UCZlbmNyeXB0ZWRBZElkPUEwMjI3MDI4MlIwSTQ2QURVNzFaMyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo reno4 z 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Reno-4Z-5G-Pantalla/dp/B08JQQ3H67/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Breno%2B4z%2B5g&amp;qid=1631264377&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo reno4 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Reno-4Z-5G-Pantalla/dp/B08JQN1FNY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Breno%2B4z%2B5g&amp;qid=1631264377&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo reno4 pro 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Reno-4Z-5G-Pantalla/dp/B08JQMCNC1/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Breno%2B4z%2B5g&amp;qid=1631264377&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo reno4 pro 5g negro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x2 neo negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Find-LITE-Smartphone-Octa-core/dp/B086911NKP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx2&amp;qid=1631264518&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x2 neo azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Find-LITE-Smartphone-Octa-core/dp/B0868Y45YN/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx2&amp;qid=1631264518&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x2 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Find-LITE-Smartphone-Octa-core/dp/B0883NXR4V/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx2&amp;qid=1631264518&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x2 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Find-LITE-Smartphone-Octa-core/dp/B0883PC1G1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx2&amp;qid=1631264518&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x2 lite negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Find-LITE-Smartphone-Octa-core/dp/B0868ZY4NB/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx2&amp;qid=1631264518&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo find x2 lite blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Find-LITE-Smartphone-Octa-core/dp/B0868YQ9N7/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo%2Bfind%2Bx2&amp;qid=1631264518&amp;sr=8-2&amp;th=1</t>
+  </si>
+  <si>
+    <t>realme realme gt 5g amarillo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/realme-Smartphone-Procesador-Snapdragon-SuperDart/dp/B09499GNHJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=realme%2Bgt%2B5g&amp;qid=1631265211&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realme realme gt 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/realme-Smartphone-Procesador-Snapdragon-SuperDart/dp/B09499KQXK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=realme%2Bgt%2B5g&amp;qid=1631265211&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realme realme gt 5g plata  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord 2 5g gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OnePlus-memoria-C%C3%A1mara-triple-Charge/dp/B096B3C23F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+nord+2&amp;qid=1631266028&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord 2 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OnePlus-memoria-C%C3%A1mara-triple-Charge/dp/B096B1J5TV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2Bnord%2B2&amp;qid=1631266028&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord 2 5g verde  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord ce 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OnePlus-Nord-CE-Smartphone-Charcoal/dp/B093T66X9W/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+nord+ce&amp;qid=1631266192&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord ce 5g negro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord ce 5g plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OnePlus-Nord-CE-Smartphone-Charcoal/dp/B093T7628L/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2Bnord%2Bce&amp;qid=1631266192&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 9 pro gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08TZWW48B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+9+pro&amp;qid=1631266274&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 9 pro verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08TZV1F4P/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B9%2Bpro&amp;qid=1631266274&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 9 pro negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08V18M581/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B9%2Bpro&amp;qid=1631266274&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 9 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08V1GG8M7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+9&amp;qid=1631266328&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 9 violeta  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08V18M581/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B9&amp;qid=1631266328&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8 pro  verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-Pantalla-Almacenamiento-Inal%C3%A1mbrica-Garant%C3%ADa/dp/B07XTBQFT7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8%2Bpro&amp;qid=1631267066&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8 pro  azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-Pantalla-Almacenamiento-Inal%C3%A1mbrica-Garant%C3%ADa/dp/B086KC734X/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8%2Bpro&amp;qid=1631267066&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8 pro  negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-Pantalla-Almacenamiento-Inal%C3%A1mbrica-Garant%C3%ADa/dp/B07XYJPGCG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8%2Bpro&amp;qid=1631267066&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8 verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-OnePlus-Pantalla-Almacenamiento-Garant%C3%ADa/dp/B07XY9B91B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8&amp;qid=1631267143&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8 violeta  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-OnePlus-Pantalla-Almacenamiento-Garant%C3%ADa/dp/B07XY8V3K5/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8&amp;qid=1631267143&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/dp/B08BPJXQZM/ref=twister_B097PWD1VJ?_encoding=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8t verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Plateado-Pantalla-almacenamiento-cu%C3%A1druple-garant%C3%ADa/dp/B08HJPB9TB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8t%2B&amp;qid=1631267326&amp;s=electronics&amp;sr=1-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8t gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Plateado-Pantalla-almacenamiento-cu%C3%A1druple-garant%C3%ADa/dp/B08HJGQ9ZS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8t%2B&amp;qid=1631267326&amp;s=electronics&amp;sr=1-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone xr coral  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-128-Coral-Reacondicionado/dp/B07N9MDR6R/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+coral&amp;qid=1631027611&amp;s=electronics&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Apple-iPhone-128-Blanco-Reacondicionado/dp/B07N9HM41P/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631026080&amp;s=electronics&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone se negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/iphone-se-2020-64-gb-negro-libre-segunda-mano/347172.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-M21-Smartphone-Ampliables/dp/B0883HGRJL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m21+negro&amp;qid=1631027875&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a72 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWPQKYS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a72+blanco&amp;qid=1631028079&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a12 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B08Q8JXS17/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+azul&amp;qid=1631028379&amp;s=electronics&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a01 core negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-SM-A013G-DS-Black/dp/B08H4K66RJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a01+core&amp;qid=1631098303&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy a51 5g blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-A51-5G-Smartphone/dp/B08BLLG746/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a51+5g+blanco&amp;qid=1631029114&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s9+ negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Plus-Smartphone-Internacional/dp/B079ZCJMYR/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s9%2B+negro&amp;qid=1631099057&amp;s=electronics&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s8 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-espa%C3%B1ola/dp/B06XXFHG6J/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+negro&amp;qid=1631030416&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s8 plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-S8-Smartphone-promociones/dp/B06XVXWNY8/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s8 azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-SM-G950F-%C3%BAnica-64GB/dp/B075MGQKWV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+azul&amp;qid=1631030453&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s8 rosa  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-SM-G950F-Galaxy-S8-Smartphone/dp/B076X8K1ND/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+rosa&amp;qid=1631030475&amp;s=electronics&amp;sr=1-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung galaxy s7 plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01FK3FHDQ/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung%2Bgalaxy%2Bs7%2Bplata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-5&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi xiaomi mix 4 blanco  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Mix-Special-Smartphone-Snapdragon/dp/B079FX25CL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+xiaomi+mi+4+blanco&amp;qid=1631030605&amp;s=electronics&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi poco m3 pro 5g azul  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Smartphone-Tel%C3%A9fono-DotDisplay-Dimensity/dp/B095HN211H/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+poco+m3+pro+5g+azul&amp;qid=1631030751&amp;s=electronics&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10t pro 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Snapdragon-5-000mAh-Hands-Free/dp/B08HJDQXBD/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+pro+5g+negro&amp;qid=1631031234&amp;s=electronics&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-Hands-Free/dp/B08HHCXBND/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaomi mi 10t 5g plata  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-Hands-Free/dp/B08KTCSN34/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi%2Bmi%2B10t%2B5g%2Bnegro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-6&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google pixel 5 verde  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Google-Pixel-%C3%BAnica-Verde-Pixeles/dp/B08JN8MCT5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=google+pixel+5+verde&amp;qid=1631031338&amp;s=electronics&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo reno4 z 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/OPPO-Reno-4Z-5G-Pantalla/dp/B08JQP6PCX/ref=sr_1_1_sspa?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo+reno4+z+5g+negro&amp;qid=1631102432&amp;s=electronics&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFNMDlLNDRBOTNHUDQmZW5jcnlwdGVkSWQ9QTAzOTM2NjUxUjlSSUJZWEE2N0ZLJmVuY3J5cHRlZEFkSWQ9QTA0NzYwMTYyUjhCR05GVktMOUFLJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo reno4 5g negro  </t>
+  </si>
+  <si>
+    <t>https://www.backmarket.es/oppo-oppo-reno4-5g-128-gb-negro-libre-segunda-mano/413404.html#l=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 9 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08V18M581/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+9+negro&amp;qid=1631102539&amp;s=electronics&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus 8 negro  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-OnePlus-Pantalla-Almacenamiento-Garant%C3%ADa/dp/B07XYBNJH3/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus%2B8&amp;qid=1631102599&amp;s=electronics&amp;sr=1-1&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneplus nord gris  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Tel%C3%A9fono-OnePlus-NORD-Cu%C3%A1druple-5G/dp/B08BPJB782/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+nord+gris&amp;qid=1631031906&amp;s=electronics&amp;sr=1-2</t>
   </si>
 </sst>
 </file>
@@ -1321,1278 +2533,3012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="59.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="24.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>269</v>
       </c>
       <c r="B1" t="s">
         <v>270</v>
       </c>
-      <c r="D1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>271</v>
       </c>
       <c r="B2" t="s">
         <v>272</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>274</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>276</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>278</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>279</v>
       </c>
       <c r="B6" t="s">
         <v>280</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>284</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>286</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>287</v>
       </c>
       <c r="B10" t="s">
         <v>288</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>290</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>291</v>
       </c>
       <c r="B12" t="s">
         <v>292</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>294</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>296</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>298</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>300</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>301</v>
       </c>
       <c r="B17" t="s">
         <v>302</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>304</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>308</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>309</v>
       </c>
       <c r="B21" t="s">
         <v>310</v>
       </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>311</v>
       </c>
       <c r="B22" t="s">
         <v>312</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>313</v>
       </c>
       <c r="B23" t="s">
         <v>314</v>
       </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>315</v>
       </c>
       <c r="B24" t="s">
         <v>316</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>317</v>
       </c>
       <c r="B25" t="s">
         <v>318</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>319</v>
       </c>
       <c r="B26" t="s">
         <v>320</v>
       </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>321</v>
       </c>
       <c r="B27" t="s">
         <v>322</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>188</v>
+      </c>
+      <c r="B125" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>207</v>
+      </c>
+      <c r="B135" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>221</v>
+      </c>
+      <c r="B142" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>225</v>
+      </c>
+      <c r="B144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>231</v>
+      </c>
+      <c r="B145" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>239</v>
+      </c>
+      <c r="B149" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>241</v>
+      </c>
+      <c r="B150" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>243</v>
+      </c>
+      <c r="B151" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>245</v>
+      </c>
+      <c r="B152" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>247</v>
+      </c>
+      <c r="B153" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>249</v>
+      </c>
+      <c r="B154" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>263</v>
+      </c>
+      <c r="B161" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>265</v>
+      </c>
+      <c r="B162" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>267</v>
+      </c>
+      <c r="B163" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>323</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B164" t="s">
         <v>324</v>
       </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>325</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B165" t="s">
         <v>326</v>
       </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D62" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D64" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D70" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D71" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D72" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D73" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D74" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D76" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D78" t="s">
-        <v>150</v>
-      </c>
-      <c r="E78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D79" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D81" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D82" t="s">
-        <v>158</v>
-      </c>
-      <c r="E82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D83" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D84" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D87" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D89" t="s">
-        <v>172</v>
-      </c>
-      <c r="E89" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D90" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D91" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D92" t="s">
-        <v>178</v>
-      </c>
-      <c r="E92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D93" t="s">
-        <v>180</v>
-      </c>
-      <c r="E93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D94" t="s">
-        <v>182</v>
-      </c>
-      <c r="E94" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D95" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D96" t="s">
-        <v>186</v>
-      </c>
-      <c r="E96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D97" t="s">
-        <v>188</v>
-      </c>
-      <c r="E97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D98" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D99" t="s">
-        <v>192</v>
-      </c>
-      <c r="E99" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D100" t="s">
-        <v>194</v>
-      </c>
-      <c r="E100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D101" t="s">
-        <v>196</v>
-      </c>
-      <c r="E101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D102" t="s">
-        <v>198</v>
-      </c>
-      <c r="E102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D103" t="s">
-        <v>200</v>
-      </c>
-      <c r="E103" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D104" t="s">
-        <v>202</v>
-      </c>
-      <c r="E104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D105" t="s">
-        <v>203</v>
-      </c>
-      <c r="E105" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D106" t="s">
-        <v>205</v>
-      </c>
-      <c r="E106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D107" t="s">
-        <v>207</v>
-      </c>
-      <c r="E107" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D108" t="s">
-        <v>209</v>
-      </c>
-      <c r="E108" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D109" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D110" t="s">
-        <v>213</v>
-      </c>
-      <c r="E110" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D111" t="s">
-        <v>215</v>
-      </c>
-      <c r="E111" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D112" t="s">
-        <v>217</v>
-      </c>
-      <c r="E112" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D113" t="s">
-        <v>219</v>
-      </c>
-      <c r="E113" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D114" t="s">
-        <v>221</v>
-      </c>
-      <c r="E114" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D115" t="s">
-        <v>223</v>
-      </c>
-      <c r="E115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D116" t="s">
-        <v>225</v>
-      </c>
-      <c r="E116" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D117" t="s">
-        <v>231</v>
-      </c>
-      <c r="E117" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D118" t="s">
-        <v>233</v>
-      </c>
-      <c r="E118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D119" t="s">
-        <v>235</v>
-      </c>
-      <c r="E119" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D120" t="s">
-        <v>237</v>
-      </c>
-      <c r="E120" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D121" t="s">
-        <v>239</v>
-      </c>
-      <c r="E121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D122" t="s">
-        <v>241</v>
-      </c>
-      <c r="E122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D123" t="s">
-        <v>243</v>
-      </c>
-      <c r="E123" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D124" t="s">
-        <v>245</v>
-      </c>
-      <c r="E124" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D125" t="s">
-        <v>247</v>
-      </c>
-      <c r="E125" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D126" t="s">
-        <v>249</v>
-      </c>
-      <c r="E126" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D127" t="s">
-        <v>251</v>
-      </c>
-      <c r="E127" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D128" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D129" t="s">
-        <v>255</v>
-      </c>
-      <c r="E129" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D130" t="s">
-        <v>257</v>
-      </c>
-      <c r="E130" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D131" t="s">
-        <v>259</v>
-      </c>
-      <c r="E131" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D132" t="s">
-        <v>261</v>
-      </c>
-      <c r="E132" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D133" t="s">
-        <v>263</v>
-      </c>
-      <c r="E133" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D134" t="s">
-        <v>265</v>
-      </c>
-      <c r="E134" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D135" t="s">
-        <v>267</v>
-      </c>
-      <c r="E135" t="s">
-        <v>268</v>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>398</v>
+      </c>
+      <c r="B203" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>411</v>
+      </c>
+      <c r="B210" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>415</v>
+      </c>
+      <c r="B212" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>419</v>
+      </c>
+      <c r="B214" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>421</v>
+      </c>
+      <c r="B215" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>423</v>
+      </c>
+      <c r="B216" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>427</v>
+      </c>
+      <c r="B218" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>429</v>
+      </c>
+      <c r="B219" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>445</v>
+      </c>
+      <c r="B227" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>447</v>
+      </c>
+      <c r="B228" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>449</v>
+      </c>
+      <c r="B229" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>465</v>
+      </c>
+      <c r="B237" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>466</v>
+      </c>
+      <c r="B238" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>468</v>
+      </c>
+      <c r="B239" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>470</v>
+      </c>
+      <c r="B240" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>472</v>
+      </c>
+      <c r="B241" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>474</v>
+      </c>
+      <c r="B242" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>476</v>
+      </c>
+      <c r="B243" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>478</v>
+      </c>
+      <c r="B244" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>480</v>
+      </c>
+      <c r="B245" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>482</v>
+      </c>
+      <c r="B246" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>486</v>
+      </c>
+      <c r="B248" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>488</v>
+      </c>
+      <c r="B249" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>490</v>
+      </c>
+      <c r="B250" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>492</v>
+      </c>
+      <c r="B251" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>494</v>
+      </c>
+      <c r="B252" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>495</v>
+      </c>
+      <c r="B253" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>497</v>
+      </c>
+      <c r="B254" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>499</v>
+      </c>
+      <c r="B255" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>501</v>
+      </c>
+      <c r="B256" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>505</v>
+      </c>
+      <c r="B258" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>507</v>
+      </c>
+      <c r="B259" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>511</v>
+      </c>
+      <c r="B261" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>513</v>
+      </c>
+      <c r="B262" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>515</v>
+      </c>
+      <c r="B263" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>517</v>
+      </c>
+      <c r="B264" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>519</v>
+      </c>
+      <c r="B265" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>521</v>
+      </c>
+      <c r="B266" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>523</v>
+      </c>
+      <c r="B267" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>525</v>
+      </c>
+      <c r="B268" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>527</v>
+      </c>
+      <c r="B269" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>529</v>
+      </c>
+      <c r="B270" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>535</v>
+      </c>
+      <c r="B273" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>537</v>
+      </c>
+      <c r="B274" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>539</v>
+      </c>
+      <c r="B275" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>541</v>
+      </c>
+      <c r="B276" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>545</v>
+      </c>
+      <c r="B278" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>551</v>
+      </c>
+      <c r="B281" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>553</v>
+      </c>
+      <c r="B282" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>555</v>
+      </c>
+      <c r="B283" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>557</v>
+      </c>
+      <c r="B284" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>559</v>
+      </c>
+      <c r="B285" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>561</v>
+      </c>
+      <c r="B286" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>564</v>
+      </c>
+      <c r="B288" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>566</v>
+      </c>
+      <c r="B289" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>568</v>
+      </c>
+      <c r="B290" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>570</v>
+      </c>
+      <c r="B291" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>572</v>
+      </c>
+      <c r="B292" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>574</v>
+      </c>
+      <c r="B293" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>576</v>
+      </c>
+      <c r="B294" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>577</v>
+      </c>
+      <c r="B295" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>579</v>
+      </c>
+      <c r="B296" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>581</v>
+      </c>
+      <c r="B297" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>583</v>
+      </c>
+      <c r="B298" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>585</v>
+      </c>
+      <c r="B299" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>587</v>
+      </c>
+      <c r="B300" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>589</v>
+      </c>
+      <c r="B301" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>591</v>
+      </c>
+      <c r="B302" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>593</v>
+      </c>
+      <c r="B303" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>595</v>
+      </c>
+      <c r="B304" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>597</v>
+      </c>
+      <c r="B305" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>598</v>
+      </c>
+      <c r="B306" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>600</v>
+      </c>
+      <c r="B307" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>602</v>
+      </c>
+      <c r="B308" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>604</v>
+      </c>
+      <c r="B309" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>606</v>
+      </c>
+      <c r="B310" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>608</v>
+      </c>
+      <c r="B311" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>610</v>
+      </c>
+      <c r="B312" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>612</v>
+      </c>
+      <c r="B313" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>614</v>
+      </c>
+      <c r="B314" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>616</v>
+      </c>
+      <c r="B315" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>618</v>
+      </c>
+      <c r="B316" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>620</v>
+      </c>
+      <c r="B317" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>622</v>
+      </c>
+      <c r="B318" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>624</v>
+      </c>
+      <c r="B319" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>626</v>
+      </c>
+      <c r="B320" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>628</v>
+      </c>
+      <c r="B321" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>630</v>
+      </c>
+      <c r="B322" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>631</v>
+      </c>
+      <c r="B323" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>633</v>
+      </c>
+      <c r="B324" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>635</v>
+      </c>
+      <c r="B325" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>637</v>
+      </c>
+      <c r="B326" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>639</v>
+      </c>
+      <c r="B327" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>641</v>
+      </c>
+      <c r="B328" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>643</v>
+      </c>
+      <c r="B329" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>645</v>
+      </c>
+      <c r="B330" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>647</v>
+      </c>
+      <c r="B331" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>648</v>
+      </c>
+      <c r="B332" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>650</v>
+      </c>
+      <c r="B333" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>652</v>
+      </c>
+      <c r="B334" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>653</v>
+      </c>
+      <c r="B335" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>655</v>
+      </c>
+      <c r="B336" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>656</v>
+      </c>
+      <c r="B337" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>658</v>
+      </c>
+      <c r="B338" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>660</v>
+      </c>
+      <c r="B339" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>662</v>
+      </c>
+      <c r="B340" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>664</v>
+      </c>
+      <c r="B341" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>666</v>
+      </c>
+      <c r="B342" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>668</v>
+      </c>
+      <c r="B343" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>670</v>
+      </c>
+      <c r="B344" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>672</v>
+      </c>
+      <c r="B345" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>674</v>
+      </c>
+      <c r="B346" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>676</v>
+      </c>
+      <c r="B347" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>678</v>
+      </c>
+      <c r="B348" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>680</v>
+      </c>
+      <c r="B349" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>682</v>
+      </c>
+      <c r="B350" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>684</v>
+      </c>
+      <c r="B351" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>333</v>
+      </c>
+      <c r="B352" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>687</v>
+      </c>
+      <c r="B353" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>451</v>
+      </c>
+      <c r="B354" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>690</v>
+      </c>
+      <c r="B355" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>692</v>
+      </c>
+      <c r="B356" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>694</v>
+      </c>
+      <c r="B357" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>696</v>
+      </c>
+      <c r="B358" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>698</v>
+      </c>
+      <c r="B359" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>700</v>
+      </c>
+      <c r="B360" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>702</v>
+      </c>
+      <c r="B361" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>704</v>
+      </c>
+      <c r="B362" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>706</v>
+      </c>
+      <c r="B363" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>708</v>
+      </c>
+      <c r="B364" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>710</v>
+      </c>
+      <c r="B365" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>712</v>
+      </c>
+      <c r="B366" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>714</v>
+      </c>
+      <c r="B367" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>716</v>
+      </c>
+      <c r="B368" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>718</v>
+      </c>
+      <c r="B369" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>720</v>
+      </c>
+      <c r="B370" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>722</v>
+      </c>
+      <c r="B371" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>724</v>
+      </c>
+      <c r="B372" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>726</v>
+      </c>
+      <c r="B373" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>728</v>
+      </c>
+      <c r="B374" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>730</v>
+      </c>
+      <c r="B375" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
